--- a/TR_ESCRIT/TAULES_R^2.xlsx
+++ b/TR_ESCRIT/TAULES_R^2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF25EE6A-2E27-4192-B2DC-54C4B53FC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2311977-DE55-4571-B63F-9A23327D2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>-</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>R^2:</t>
+  </si>
+  <si>
+    <t>&lt;º</t>
   </si>
 </sst>
 </file>
@@ -668,18 +671,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I8" sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -706,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -732,7 +735,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>0</v>
       </c>
@@ -758,7 +761,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -784,7 +787,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>0.1</v>
       </c>
@@ -810,7 +813,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>0.2</v>
       </c>
@@ -836,7 +839,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -862,13 +865,13 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
@@ -891,7 +894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>7</v>
       </c>
@@ -914,7 +917,36 @@
         <v>0.499</v>
       </c>
     </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B13:G13 B2:H7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:G13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:H7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -935,30 +967,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:G13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:G13 B2:H7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/TR_ESCRIT/TAULES_R^2.xlsx
+++ b/TR_ESCRIT/TAULES_R^2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2311977-DE55-4571-B63F-9A23327D2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB7DB4-B693-4510-A8DB-377E7499F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="18780" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>-</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>R^2:</t>
-  </si>
-  <si>
-    <t>&lt;º</t>
   </si>
 </sst>
 </file>
@@ -96,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -215,36 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -348,6 +315,45 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -355,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -369,27 +375,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -671,46 +679,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:I8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="21">
         <v>0</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="21">
         <v>1</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="21">
         <v>0.1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -735,112 +743,112 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
         <v>0</v>
       </c>
       <c r="B3" s="8">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="19">
         <v>0.439</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="19">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>0.56200000000000006</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="19">
         <v>0.70599999999999996</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="19">
         <v>0.81200000000000006</v>
       </c>
       <c r="H3" s="2">
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="19">
         <v>0.66900000000000004</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="19">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="19">
         <v>0.71199999999999997</v>
       </c>
       <c r="H4" s="2">
         <v>0.501</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>0.1</v>
       </c>
       <c r="B5" s="8">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="19">
         <v>0.114</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <v>0.317</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>0.78300000000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="19">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="19">
         <v>0.67300000000000004</v>
       </c>
       <c r="H5" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>0.2</v>
       </c>
       <c r="B6" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="19">
         <v>0.159</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="19">
         <v>0.747</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="19">
         <v>0.89300000000000002</v>
       </c>
       <c r="H6" s="2">
         <v>0.755</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9">
@@ -865,37 +873,37 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>10</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>25</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>50</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3">
@@ -915,16 +923,11 @@
       </c>
       <c r="G13" s="4">
         <v>0.499</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:G13 B2:H7">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -936,7 +939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:G13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -948,7 +951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:H7">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -958,12 +961,42 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H7 B13:G13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/TR_ESCRIT/TAULES_R^2.xlsx
+++ b/TR_ESCRIT/TAULES_R^2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR_ESCRIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB7DB4-B693-4510-A8DB-377E7499F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D8056-8743-4E7B-8ECE-78A9232E7255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="18780" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -389,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,39 +684,39 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="20">
         <v>0</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>0.1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -743,111 +742,111 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
       <c r="B3" s="8">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3">
         <v>0.439</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <v>0.81200000000000006</v>
       </c>
       <c r="H3" s="2">
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4">
         <v>0.66900000000000004</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4">
         <v>0.71199999999999997</v>
       </c>
       <c r="H4" s="2">
         <v>0.501</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>0.1</v>
       </c>
       <c r="B5" s="8">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5">
         <v>0.114</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>0.317</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5">
         <v>0.78300000000000003</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5">
         <v>0.67300000000000004</v>
       </c>
       <c r="H5" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0.2</v>
       </c>
       <c r="B6" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6">
         <v>0.159</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>0.747</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6">
         <v>0.89300000000000002</v>
       </c>
       <c r="H6" s="2">
         <v>0.755</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
@@ -873,13 +872,13 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
@@ -902,7 +901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -950,7 +949,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H7 B13:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:H7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -969,36 +998,6 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H7 B13:G13">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
